--- a/pages/hatedataset.xlsx
+++ b/pages/hatedataset.xlsx
@@ -24,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N22" authorId="0" shapeId="0">
+    <comment ref="N21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0" shapeId="0">
+    <comment ref="N22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K25" authorId="0" shapeId="0">
+    <comment ref="K24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="0" shapeId="0">
+    <comment ref="N24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>Country</t>
   </si>
@@ -323,18 +323,6 @@
 </t>
   </si>
   <si>
-    <t>Republic of Turkey</t>
-  </si>
-  <si>
-    <t>decreasing</t>
-  </si>
-  <si>
-    <t>Racist and xenophobic hate crime
-Anti-Muslim hate crime- Anti-Christian hate crime
-Anti-LGBTI hate crime- 
-gender based hate crime</t>
-  </si>
-  <si>
     <t>There were falls in 4 of the monitored strands 
 (race, disability, sexual orientation and transgender) 
 and an increase in religious hate crimes over the past year. (2024)</t>
@@ -367,18 +355,6 @@
     <t>There are incidents reported by civil society (does this count?)</t>
   </si>
   <si>
-    <t>Republic of Colombia (1886)</t>
-  </si>
-  <si>
-    <t>Republic of Ireland (1937)</t>
-  </si>
-  <si>
-    <t>Republic of South Africa (1961, 1994)</t>
-  </si>
-  <si>
-    <t>USA Federal Republic (1789)</t>
-  </si>
-  <si>
     <t>Indigenous people (ethnicity)
 Afro-Colombians (race)
 LGBTQ</t>
@@ -422,6 +398,18 @@
   </si>
   <si>
     <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Republic of Colombia</t>
+  </si>
+  <si>
+    <t>Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Republic of South Africa</t>
+  </si>
+  <si>
+    <t>USA Federal Republic</t>
   </si>
 </sst>
 </file>
@@ -1262,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26:XFD90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -1310,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1383,7 +1371,7 @@
     </row>
     <row r="3" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1718,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N10" s="5">
         <v>19.484999999999999</v>
@@ -1759,10 +1747,10 @@
         <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="N11" s="5">
         <v>130000</v>
@@ -1951,33 +1939,33 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="L16" t="s">
         <v>16</v>
       </c>
@@ -1985,30 +1973,30 @@
         <v>16</v>
       </c>
       <c r="N16" s="5">
-        <v>40000</v>
+        <v>54200</v>
       </c>
       <c r="O16">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="P16">
-        <v>87473805</v>
+        <v>69138192</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="E17" s="7">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="F17" s="7">
-        <v>4</v>
-      </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -2019,40 +2007,40 @@
       <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1146</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="5">
-        <v>54200</v>
-      </c>
-      <c r="O17">
-        <v>14</v>
-      </c>
-      <c r="P17">
-        <v>69138192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
       <c r="B18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7">
-        <v>0.7</v>
+        <v>0.53190000000000004</v>
       </c>
       <c r="F18" s="7">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
@@ -2064,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2072,28 +2060,28 @@
       <c r="M18" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="5">
-        <v>1146</v>
+      <c r="N18" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>6.64</v>
       </c>
       <c r="P18">
-        <v>10533</v>
+        <v>5422620</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7">
-        <v>0.53190000000000004</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="F19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -2107,8 +2095,8 @@
       <c r="J19" t="s">
         <v>16</v>
       </c>
-      <c r="K19" t="s">
-        <v>56</v>
+      <c r="K19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2116,25 +2104,25 @@
       <c r="M19" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>38</v>
+      <c r="N19" s="5">
+        <v>160</v>
       </c>
       <c r="O19">
-        <v>6.64</v>
+        <v>12.08</v>
       </c>
       <c r="P19">
-        <v>5422620</v>
+        <v>2124709</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" s="7">
-        <v>0.19500000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -2146,13 +2134,13 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2161,65 +2149,65 @@
         <v>16</v>
       </c>
       <c r="N20" s="5">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="O20">
-        <v>12.08</v>
+        <v>6.06</v>
       </c>
       <c r="P20">
-        <v>2124709</v>
+        <v>3861967</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>59</v>
+      <c r="A21" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="E21" s="7">
-        <v>0.19900000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="F21" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>60</v>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="5">
-        <v>234</v>
+      <c r="N21" s="6">
+        <v>34000</v>
       </c>
       <c r="O21">
-        <v>6.06</v>
-      </c>
-      <c r="P21">
-        <v>3861967</v>
+        <v>64.5</v>
+      </c>
+      <c r="P21" s="10">
+        <v>52695952</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.64</v>
       </c>
       <c r="F22" s="7">
         <v>3</v>
@@ -2228,36 +2216,39 @@
         <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="6">
-        <v>34000</v>
+        <v>4400</v>
       </c>
       <c r="O22">
-        <v>64.5</v>
+        <v>81.8</v>
       </c>
       <c r="P22" s="10">
-        <v>52695952</v>
+        <v>5380300</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.68</v>
       </c>
       <c r="F23" s="7">
         <v>3</v>
@@ -2266,37 +2257,40 @@
         <v>14</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="6">
-        <v>4400</v>
+        <v>11000</v>
       </c>
       <c r="O23">
-        <v>81.8</v>
+        <v>17.7</v>
       </c>
       <c r="P23" s="10">
-        <v>5380300</v>
+        <v>62027503</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
+      <c r="E24" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F24" s="7">
         <v>3</v>
       </c>
@@ -2307,66 +2301,31 @@
         <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
         <v>16</v>
       </c>
       <c r="N24" s="6">
-        <v>11000</v>
+        <v>117000</v>
       </c>
       <c r="O24">
-        <v>17.7</v>
+        <v>34.4</v>
       </c>
       <c r="P24" s="10">
-        <v>62027503</v>
+        <v>340110988</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="F25" s="7">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="6">
-        <v>117000</v>
-      </c>
-      <c r="O25">
-        <v>34.4</v>
-      </c>
-      <c r="P25" s="10">
-        <v>340110988</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2557,9 +2516,6 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
